--- a/data/case1/18/P2_1.xlsx
+++ b/data/case1/18/P2_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.43083306572343361</v>
+        <v>0.3632265282951721</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.074272445139502707</v>
+        <v>-0.087979172526694072</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999993252494193</v>
+        <v>-0.0089999997813485777</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999816653784</v>
+        <v>-0.011999999938343109</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999993297576992</v>
+        <v>-0.005999999786560295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999993043646782</v>
+        <v>-0.0059999997816078121</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.01999999918240114</v>
+        <v>-0.019999999735720309</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999174550531</v>
+        <v>-0.019999999735101248</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0072082681420662098</v>
+        <v>-0.005999999780666343</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999992749908415</v>
+        <v>-0.0059999997810038508</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999992867680305</v>
+        <v>-0.0044999997860095675</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999992713501982</v>
+        <v>-0.0059999997811823746</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999992604549135</v>
+        <v>0.062331131190581424</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999205991152</v>
+        <v>-0.01199999976241628</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.005999999254657773</v>
+        <v>-0.0059999997811521766</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999992523127599</v>
+        <v>-0.0059999997804043304</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999992492416609</v>
+        <v>-0.0059999997794530913</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999992230413994</v>
+        <v>-0.0089999997694336642</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999993479406015</v>
+        <v>-0.008999999786910351</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999993422278379</v>
+        <v>-0.0089999997849705693</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999993413751866</v>
+        <v>-0.0089999997846543778</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999993408200751</v>
+        <v>-0.0089999997844190105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999993194700423</v>
+        <v>-0.0089999997792862274</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999028256241</v>
+        <v>-0.041999999668226096</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.0419999990231954</v>
+        <v>-0.041999999666370691</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999993026842446</v>
+        <v>-0.0059999997810358252</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0071361994063097178</v>
+        <v>-0.0059999997801130078</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999992871331287</v>
+        <v>0.019781416904098847</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999227295888</v>
+        <v>-0.011999999754067403</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999154905357</v>
+        <v>-0.019999999726365125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.008408691794432599</v>
+        <v>-0.01499999974028654</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999139768022</v>
+        <v>-0.020999999720375584</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999992672645774</v>
+        <v>-0.0059999997690614038</v>
       </c>
     </row>
   </sheetData>
